--- a/tables/books_eng.xlsx
+++ b/tables/books_eng.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/Rsources_book/Resources/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB026E90-CD9C-AB40-AEEC-A1F26D3A07DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029734FF-1D0D-A644-A16F-EB3A80B5E957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="25540" windowHeight="14160" xr2:uid="{D3150169-A0ED-F142-9C13-F6AF1A7F6BF6}"/>
   </bookViews>
@@ -271,9 +271,6 @@
     <t>https://pharmaverse.org/</t>
   </si>
   <si>
-    <t>ресурс</t>
-  </si>
-  <si>
     <t>https://www.epirhandbook.com/en/</t>
   </si>
   <si>
@@ -554,6 +551,9 @@
   </si>
   <si>
     <t>R for Social Network Analysis (in progress)</t>
+  </si>
+  <si>
+    <t>resource</t>
   </si>
 </sst>
 </file>
@@ -911,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030A72B4-BCD4-C841-B970-1A2BD7901864}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -981,7 +981,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -989,24 +989,24 @@
     </row>
     <row r="7" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1033,35 +1033,35 @@
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1077,35 +1077,35 @@
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1163,7 +1163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1176,35 +1176,35 @@
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1242,13 +1242,13 @@
     </row>
     <row r="30" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1256,7 +1256,7 @@
         <v>68</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>67</v>
@@ -1264,13 +1264,13 @@
     </row>
     <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1297,35 +1297,35 @@
     </row>
     <row r="35" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.2">
@@ -1341,32 +1341,32 @@
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>77</v>
@@ -1374,90 +1374,90 @@
     </row>
     <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1484,13 +1484,13 @@
     </row>
     <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -1506,13 +1506,13 @@
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1539,35 +1539,35 @@
     </row>
     <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/tables/books_eng.xlsx
+++ b/tables/books_eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029734FF-1D0D-A644-A16F-EB3A80B5E957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E74C7C-F61F-164B-9B25-59EC71B6E350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="25540" windowHeight="14160" xr2:uid="{D3150169-A0ED-F142-9C13-F6AF1A7F6BF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="179">
   <si>
     <t>link</t>
   </si>
@@ -554,6 +554,24 @@
   </si>
   <si>
     <t>resource</t>
+  </si>
+  <si>
+    <t>Hydroinformatics</t>
+  </si>
+  <si>
+    <t>https://vt-hydroinformatics.github.io/Quarto_Book/</t>
+  </si>
+  <si>
+    <t>JP Gannon</t>
+  </si>
+  <si>
+    <t>Cooking With DuckDB</t>
+  </si>
+  <si>
+    <t>boB Rudis</t>
+  </si>
+  <si>
+    <t>https://duckdb.hrbrmstr.app/</t>
   </si>
 </sst>
 </file>
@@ -909,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030A72B4-BCD4-C841-B970-1A2BD7901864}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1451,123 +1469,145 @@
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/tables/books_eng.xlsx
+++ b/tables/books_eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E74C7C-F61F-164B-9B25-59EC71B6E350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79009F3-F629-324C-A27E-2FC0B2DE2EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="25540" windowHeight="14160" xr2:uid="{D3150169-A0ED-F142-9C13-F6AF1A7F6BF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="181">
   <si>
     <t>link</t>
   </si>
@@ -572,6 +572,12 @@
   </si>
   <si>
     <t>https://duckdb.hrbrmstr.app/</t>
+  </si>
+  <si>
+    <t>https://algorithmsbook.com/</t>
+  </si>
+  <si>
+    <t>authors</t>
   </si>
 </sst>
 </file>
@@ -927,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030A72B4-BCD4-C841-B970-1A2BD7901864}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1601,12 +1607,23 @@
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>178</v>
       </c>
     </row>

--- a/tables/books_eng.xlsx
+++ b/tables/books_eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79009F3-F629-324C-A27E-2FC0B2DE2EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7ABD2F-9CFD-A34C-BECB-7A0ADC2F449C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="25540" windowHeight="14160" xr2:uid="{D3150169-A0ED-F142-9C13-F6AF1A7F6BF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="184">
   <si>
     <t>link</t>
   </si>
@@ -578,6 +578,15 @@
   </si>
   <si>
     <t>authors</t>
+  </si>
+  <si>
+    <t>Allen B. Downey</t>
+  </si>
+  <si>
+    <t>Think Python</t>
+  </si>
+  <si>
+    <t>https://allendowney.github.io/ThinkPython/index.html</t>
   </si>
 </sst>
 </file>
@@ -933,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030A72B4-BCD4-C841-B970-1A2BD7901864}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1572,58 +1581,69 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>178</v>
       </c>
     </row>

--- a/tables/books_eng.xlsx
+++ b/tables/books_eng.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7ABD2F-9CFD-A34C-BECB-7A0ADC2F449C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62242794-8765-C84D-AD05-D3F6FF743057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="25540" windowHeight="14160" xr2:uid="{D3150169-A0ED-F142-9C13-F6AF1A7F6BF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="187">
   <si>
     <t>link</t>
   </si>
@@ -587,19 +587,35 @@
   </si>
   <si>
     <t>https://allendowney.github.io/ThinkPython/index.html</t>
+  </si>
+  <si>
+    <t>Albert Rapp</t>
+  </si>
+  <si>
+    <t>Creating beautiful tables in R with {gt}</t>
+  </si>
+  <si>
+    <t>https://gt.albert-rapp.de/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -623,11 +639,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -942,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030A72B4-BCD4-C841-B970-1A2BD7901864}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:C58"/>
+      <selection activeCell="A64" sqref="A64:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1647,6 +1664,17 @@
         <v>178</v>
       </c>
     </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/books_eng.xlsx
+++ b/tables/books_eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62242794-8765-C84D-AD05-D3F6FF743057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E9126B-BB19-CE45-8055-90ABC32AA67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="25540" windowHeight="14160" xr2:uid="{D3150169-A0ED-F142-9C13-F6AF1A7F6BF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="190">
   <si>
     <t>link</t>
   </si>
@@ -596,6 +596,15 @@
   </si>
   <si>
     <t>https://gt.albert-rapp.de/</t>
+  </si>
+  <si>
+    <t>Stephen D. Turner</t>
+  </si>
+  <si>
+    <t>Biological Data Science with R</t>
+  </si>
+  <si>
+    <t>https://bdsr.stephenturner.us/</t>
   </si>
 </sst>
 </file>
@@ -959,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030A72B4-BCD4-C841-B970-1A2BD7901864}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:C64"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1675,6 +1684,17 @@
         <v>186</v>
       </c>
     </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/books_eng.xlsx
+++ b/tables/books_eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book-en/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E9126B-BB19-CE45-8055-90ABC32AA67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EF81D4-78AA-B044-AF04-3754FB4DF86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="25540" windowHeight="14160" xr2:uid="{D3150169-A0ED-F142-9C13-F6AF1A7F6BF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="199">
   <si>
     <t>link</t>
   </si>
@@ -605,6 +605,33 @@
   </si>
   <si>
     <t>https://bdsr.stephenturner.us/</t>
+  </si>
+  <si>
+    <t>Reproducible Medical Research with R</t>
+  </si>
+  <si>
+    <t>https://bookdown.org/pdr_higgins/rmrwr/</t>
+  </si>
+  <si>
+    <t>Peter D.R. Higgins</t>
+  </si>
+  <si>
+    <t>Introduction to Bayesian statistics in R &amp; brms</t>
+  </si>
+  <si>
+    <t>Benjamin Rosenbaum</t>
+  </si>
+  <si>
+    <t>https://github.com/benjamin-rosenbaum/bayesian-intro</t>
+  </si>
+  <si>
+    <t>Doing Bayesian Data Analysis in brms and the tidyverse</t>
+  </si>
+  <si>
+    <t>Solomon Kurz</t>
+  </si>
+  <si>
+    <t>https://bookdown.org/content/3686/</t>
   </si>
 </sst>
 </file>
@@ -968,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030A72B4-BCD4-C841-B970-1A2BD7901864}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C68" sqref="A66:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1695,6 +1722,39 @@
         <v>189</v>
       </c>
     </row>
+    <row r="66" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
